--- a/medicine/Psychotrope/Jeu_à_boire/Jeu_à_boire.xlsx
+++ b/medicine/Psychotrope/Jeu_à_boire/Jeu_à_boire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jeu_%C3%A0_boire</t>
+          <t>Jeu_à_boire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les jeux à boire sont des jeux mettant en scène la consommation de boissons alcoolisées. Ils se pratiquent généralement à plusieurs, leur pratique seul étant assimilée à du simple alcoolisme.
 Le principe général de ces jeux est de s'enivrer. Ils se pratiquent dans des bars ou au cours de soirées privées. Ils sont très populaires chez les adolescents et les jeunes adultes. Ce type de jeux est également très répandu aux États-Unis, dans les universités notamment.
